--- a/Code/Results/Cases/Case_3_253/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_253/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.490887433232785</v>
+        <v>1.714699423880404</v>
       </c>
       <c r="C2">
-        <v>0.8586266986748683</v>
+        <v>0.250909639502737</v>
       </c>
       <c r="D2">
-        <v>0.05429746858335704</v>
+        <v>0.0769704405247964</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.531121038830833</v>
+        <v>1.994199913594798</v>
       </c>
       <c r="G2">
-        <v>0.000787057968221457</v>
+        <v>0.002492051564827234</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.476644014538437</v>
+        <v>1.469259451262516</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4076738552670918</v>
+        <v>0.3037662645572681</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.013393051310572</v>
+        <v>1.598190042741692</v>
       </c>
       <c r="C3">
-        <v>0.7405035994004834</v>
+        <v>0.2181842122574267</v>
       </c>
       <c r="D3">
-        <v>0.05401991396388439</v>
+        <v>0.07715322995481344</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.26288544560316</v>
+        <v>1.937835160850398</v>
       </c>
       <c r="G3">
-        <v>0.0007967267059085977</v>
+        <v>0.002497890905039584</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.354332925723895</v>
+        <v>1.446692224825796</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3576812200805648</v>
+        <v>0.2928482977020366</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.725059389585397</v>
+        <v>1.527687279535769</v>
       </c>
       <c r="C4">
-        <v>0.6691071367639267</v>
+        <v>0.198095409460592</v>
       </c>
       <c r="D4">
-        <v>0.05398305618614074</v>
+        <v>0.07729729758906601</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.104223392804073</v>
+        <v>1.904505472940002</v>
       </c>
       <c r="G4">
-        <v>0.0008028038411160856</v>
+        <v>0.002501662239036914</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.282814801675684</v>
+        <v>1.433679701155455</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3277403287520713</v>
+        <v>0.2863377924453516</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.608601440614393</v>
+        <v>1.499215713705098</v>
       </c>
       <c r="C5">
-        <v>0.6402468489075375</v>
+        <v>0.189909547437253</v>
       </c>
       <c r="D5">
-        <v>0.05399859786552952</v>
+        <v>0.07736393689206267</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.040914413219653</v>
+        <v>1.891241731045469</v>
       </c>
       <c r="G5">
-        <v>0.000805317949658596</v>
+        <v>0.002503246017194831</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.254478194632128</v>
+        <v>1.428587366770017</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.315706200048794</v>
+        <v>0.2837330116229282</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.589321609052774</v>
+        <v>1.494503632703697</v>
       </c>
       <c r="C6">
-        <v>0.6354674001295848</v>
+        <v>0.1885503004507143</v>
       </c>
       <c r="D6">
-        <v>0.05400294172461173</v>
+        <v>0.07737547911300169</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.030478675805455</v>
+        <v>1.889058435354471</v>
       </c>
       <c r="G6">
-        <v>0.0008057377515542104</v>
+        <v>0.00250351184201403</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.249819143360639</v>
+        <v>1.427754441656774</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3137174039010802</v>
+        <v>0.283303399306817</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.723484808895364</v>
+        <v>1.527302255447466</v>
       </c>
       <c r="C7">
-        <v>0.6687170307092174</v>
+        <v>0.1979850109984227</v>
       </c>
       <c r="D7">
-        <v>0.05398314581903207</v>
+        <v>0.07729816429796088</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.103364345480102</v>
+        <v>1.904325308512725</v>
       </c>
       <c r="G7">
-        <v>0.0008028375920082576</v>
+        <v>0.002501683407992819</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.282429490966024</v>
+        <v>1.433610174774245</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3275773845746954</v>
+        <v>0.2863024682353483</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.325127225984886</v>
+        <v>1.674311480527138</v>
       </c>
       <c r="C8">
-        <v>0.8176311319243439</v>
+        <v>0.2396244914069428</v>
       </c>
       <c r="D8">
-        <v>0.0541721272430209</v>
+        <v>0.07702681424930446</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.437272790404165</v>
+        <v>1.974498095576536</v>
       </c>
       <c r="G8">
-        <v>0.0007903640418123786</v>
+        <v>0.002494026476373</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.433669074179875</v>
+        <v>1.461302026612586</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3902653414161819</v>
+        <v>0.299961488222948</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.55257838016513</v>
+        <v>1.970879677782477</v>
       </c>
       <c r="C9">
-        <v>1.121201618281475</v>
+        <v>0.3213530683602812</v>
       </c>
       <c r="D9">
-        <v>0.05575729901362081</v>
+        <v>0.0767506654778245</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.148617786565239</v>
+        <v>2.122400591792058</v>
       </c>
       <c r="G9">
-        <v>0.0007669018415861457</v>
+        <v>0.002480479005819775</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.763378424943028</v>
+        <v>1.522387282233552</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5203405905647145</v>
+        <v>0.3282936770582836</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.498097999254014</v>
+        <v>2.193950921345674</v>
       </c>
       <c r="C10">
-        <v>1.355418885887559</v>
+        <v>0.3815001085517338</v>
       </c>
       <c r="D10">
-        <v>0.05791251357599236</v>
+        <v>0.0767085342868441</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.719539441655257</v>
+        <v>2.237560365112188</v>
       </c>
       <c r="G10">
-        <v>0.0007500878443895688</v>
+        <v>0.002471409615084408</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.033323591762183</v>
+        <v>1.571526071065549</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6221025326178591</v>
+        <v>0.3500747776921287</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.941646766423105</v>
+        <v>2.296588507953288</v>
       </c>
       <c r="C11">
-        <v>1.465513275491503</v>
+        <v>0.4088971872736238</v>
       </c>
       <c r="D11">
-        <v>0.05917608978259636</v>
+        <v>0.07672529932866468</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.993433991860087</v>
+        <v>2.291408750250667</v>
       </c>
       <c r="G11">
-        <v>0.000742481776836706</v>
+        <v>0.002467473331525527</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.164143869619124</v>
+        <v>1.594833016531382</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6702294546883536</v>
+        <v>0.3601982950723084</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.111926753382704</v>
+        <v>2.335623807493221</v>
       </c>
       <c r="C12">
-        <v>1.50782488705795</v>
+        <v>0.4192778376123556</v>
       </c>
       <c r="D12">
-        <v>0.0597021995535556</v>
+        <v>0.07673689872933664</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.099555708577725</v>
+        <v>2.312013652180383</v>
       </c>
       <c r="G12">
-        <v>0.0007396028644502549</v>
+        <v>0.002466009824880642</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.215034273731362</v>
+        <v>1.603797998822273</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6887658712641667</v>
+        <v>0.3640631207529736</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.075143992750782</v>
+        <v>2.327209328130209</v>
       </c>
       <c r="C13">
-        <v>1.498682722464764</v>
+        <v>0.4170419001647474</v>
       </c>
       <c r="D13">
-        <v>0.05958665130403773</v>
+        <v>0.07673416571185498</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.076587141222205</v>
+        <v>2.307566457819121</v>
       </c>
       <c r="G13">
-        <v>0.0007402229147963024</v>
+        <v>0.00246632381554787</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.20401049934118</v>
+        <v>1.601861008133056</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6847590104028569</v>
+        <v>0.3632293654137442</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.955606913049849</v>
+        <v>2.299796575246489</v>
       </c>
       <c r="C14">
-        <v>1.468981123069284</v>
+        <v>0.4097510852453183</v>
       </c>
       <c r="D14">
-        <v>0.05921837484480363</v>
+        <v>0.07672614789994014</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.002114212986896</v>
+        <v>2.293099625098165</v>
       </c>
       <c r="G14">
-        <v>0.0007422449304328501</v>
+        <v>0.002467352386347366</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.168302315814444</v>
+        <v>1.59556777053163</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6717479064885481</v>
+        <v>0.3605156280295319</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.882701380413607</v>
+        <v>2.283027489638357</v>
       </c>
       <c r="C15">
-        <v>1.450872556759464</v>
+        <v>0.4052860525773667</v>
       </c>
       <c r="D15">
-        <v>0.05899922215552778</v>
+        <v>0.07672192307979486</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.956822269376886</v>
+        <v>2.284266205458408</v>
       </c>
       <c r="G15">
-        <v>0.000743483492443106</v>
+        <v>0.002467985937156297</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.146612467665406</v>
+        <v>1.591731162844582</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6638203852921691</v>
+        <v>0.3588574675154348</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.469412923327582</v>
+        <v>2.187266824357437</v>
       </c>
       <c r="C16">
-        <v>1.348304433098349</v>
+        <v>0.3797104360768913</v>
       </c>
       <c r="D16">
-        <v>0.05783619700515885</v>
+        <v>0.07670816883833709</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.701954999874545</v>
+        <v>2.234070957072078</v>
       </c>
       <c r="G16">
-        <v>0.0007505853846330857</v>
+        <v>0.00247167065845815</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.024951818262139</v>
+        <v>1.57002226752725</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.618998180093385</v>
+        <v>0.3494175398053159</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.219569422519385</v>
+        <v>2.128819375527996</v>
       </c>
       <c r="C17">
-        <v>1.286364347732331</v>
+        <v>0.3640303868009482</v>
       </c>
       <c r="D17">
-        <v>0.05719979097794692</v>
+        <v>0.07670899334465275</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.549475844825025</v>
+        <v>2.203654638740716</v>
       </c>
       <c r="G17">
-        <v>0.0007549499153802396</v>
+        <v>0.002473979518038638</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.952502777301717</v>
+        <v>1.556950214546092</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5920030339060389</v>
+        <v>0.3436817937426042</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.077103423805738</v>
+        <v>2.095311156999685</v>
       </c>
       <c r="C18">
-        <v>1.251064354607195</v>
+        <v>0.3550149656264239</v>
       </c>
       <c r="D18">
-        <v>0.05685992265198792</v>
+        <v>0.07671284448196758</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.46308357274566</v>
+        <v>2.186297340159712</v>
       </c>
       <c r="G18">
-        <v>0.0007574646248227346</v>
+        <v>0.00247532535238376</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.91157342604707</v>
+        <v>1.54952113682279</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5766455839942779</v>
+        <v>0.3404029786625671</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.029068589823567</v>
+        <v>2.083984556843973</v>
       </c>
       <c r="C19">
-        <v>1.239165332083928</v>
+        <v>0.3519630461830161</v>
       </c>
       <c r="D19">
-        <v>0.05674915332053132</v>
+        <v>0.07671472584784311</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.434047376937542</v>
+        <v>2.180443943125681</v>
       </c>
       <c r="G19">
-        <v>0.0007583169432687775</v>
+        <v>0.002475784097587946</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.897837247665123</v>
+        <v>1.547021109427547</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5714735737357444</v>
+        <v>0.3392962936689941</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.246035017024042</v>
+        <v>2.135029891734177</v>
       </c>
       <c r="C20">
-        <v>1.292923457158054</v>
+        <v>0.365699204517</v>
       </c>
       <c r="D20">
-        <v>0.05726478216838871</v>
+        <v>0.07670855547219446</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.565569501132302</v>
+        <v>2.206878265901224</v>
       </c>
       <c r="G20">
-        <v>0.0007544848862288296</v>
+        <v>0.002473731891004978</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.960137030031291</v>
+        <v>1.558332466705778</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5948588524413765</v>
+        <v>0.3442902771858058</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.990651553348641</v>
+        <v>2.307843773842421</v>
       </c>
       <c r="C21">
-        <v>1.477687363366044</v>
+        <v>0.4118924057155482</v>
       </c>
       <c r="D21">
-        <v>0.05932519304100481</v>
+        <v>0.07672835974643988</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.023920277143134</v>
+        <v>2.297343056996795</v>
       </c>
       <c r="G21">
-        <v>0.0007416510211140093</v>
+        <v>0.002467049536530151</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.178752253447598</v>
+        <v>1.597412454170353</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.675560701483036</v>
+        <v>0.3613118672068083</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.491038261925212</v>
+        <v>2.421771619525884</v>
       </c>
       <c r="C22">
-        <v>1.602128302155052</v>
+        <v>0.4421175267117405</v>
       </c>
       <c r="D22">
-        <v>0.06095350362252816</v>
+        <v>0.07677194846279178</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.337704611192436</v>
+        <v>2.357714215533377</v>
       </c>
       <c r="G22">
-        <v>0.0007332683464400191</v>
+        <v>0.002462839990518547</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.32962458801758</v>
+        <v>1.623765506431212</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7301493986153389</v>
+        <v>0.3726188784455928</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.222570636297576</v>
+        <v>2.360875578221169</v>
       </c>
       <c r="C23">
-        <v>1.535332654498688</v>
+        <v>0.4259823181678826</v>
       </c>
       <c r="D23">
-        <v>0.06005605209748666</v>
+        <v>0.07674585231223574</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.168793738843675</v>
+        <v>2.325377705206847</v>
       </c>
       <c r="G23">
-        <v>0.0007377436750308775</v>
+        <v>0.002465072322774041</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.248295459265634</v>
+        <v>1.609625407059553</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7008276448983395</v>
+        <v>0.3665673128990932</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.234066298494611</v>
+        <v>2.132221824698263</v>
       </c>
       <c r="C24">
-        <v>1.289957125753688</v>
+        <v>0.3649447344315604</v>
       </c>
       <c r="D24">
-        <v>0.05723531914124891</v>
+        <v>0.07670874292134755</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.558289630048392</v>
+        <v>2.205420461124902</v>
       </c>
       <c r="G24">
-        <v>0.0007546951083718945</v>
+        <v>0.002473843785603006</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.956683348290596</v>
+        <v>1.557707282103465</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.593567234500199</v>
+        <v>0.3440151234696884</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.21402519308316</v>
+        <v>1.889749850323426</v>
       </c>
       <c r="C25">
-        <v>1.037448396251932</v>
+        <v>0.29922969188911</v>
       </c>
       <c r="D25">
-        <v>0.05517482399319817</v>
+        <v>0.07679748333037395</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.948809840936519</v>
+        <v>2.08126436099991</v>
       </c>
       <c r="G25">
-        <v>0.0007731597661945189</v>
+        <v>0.00248398794590211</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.669921183405336</v>
+        <v>1.505123201536918</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4842113517653388</v>
+        <v>0.3204611711356335</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_253/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_253/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.714699423880404</v>
+        <v>3.490887433232615</v>
       </c>
       <c r="C2">
-        <v>0.250909639502737</v>
+        <v>0.8586266986751241</v>
       </c>
       <c r="D2">
-        <v>0.0769704405247964</v>
+        <v>0.05429746858322204</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.994199913594798</v>
+        <v>2.531121038830833</v>
       </c>
       <c r="G2">
-        <v>0.002492051564827234</v>
+        <v>0.0007870579682194715</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.469259451262516</v>
+        <v>1.476644014538451</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3037662645572681</v>
+        <v>0.4076738552670207</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.598190042741692</v>
+        <v>3.013393051310459</v>
       </c>
       <c r="C3">
-        <v>0.2181842122574267</v>
+        <v>0.740503599400455</v>
       </c>
       <c r="D3">
-        <v>0.07715322995481344</v>
+        <v>0.0540199139637707</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.937835160850398</v>
+        <v>2.262885445603203</v>
       </c>
       <c r="G3">
-        <v>0.002497890905039584</v>
+        <v>0.0007967267058489455</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.446692224825796</v>
+        <v>1.354332925723881</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2928482977020366</v>
+        <v>0.3576812200804937</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.527687279535769</v>
+        <v>2.725059389585454</v>
       </c>
       <c r="C4">
-        <v>0.198095409460592</v>
+        <v>0.6691071367643247</v>
       </c>
       <c r="D4">
-        <v>0.07729729758906601</v>
+        <v>0.05398305618601995</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.904505472940002</v>
+        <v>2.104223392804087</v>
       </c>
       <c r="G4">
-        <v>0.002501662239036914</v>
+        <v>0.0008028038410561322</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.433679701155455</v>
+        <v>1.282814801675698</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2863377924453516</v>
+        <v>0.3277403287520997</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.499215713705098</v>
+        <v>2.60860144061445</v>
       </c>
       <c r="C5">
-        <v>0.189909547437253</v>
+        <v>0.6402468489076796</v>
       </c>
       <c r="D5">
-        <v>0.07736393689206267</v>
+        <v>0.05399859786550465</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.891241731045469</v>
+        <v>2.040914413219639</v>
       </c>
       <c r="G5">
-        <v>0.002503246017194831</v>
+        <v>0.0008053179497584307</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.428587366770017</v>
+        <v>1.254478194632142</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2837330116229282</v>
+        <v>0.3157062000487088</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.494503632703697</v>
+        <v>2.589321609052433</v>
       </c>
       <c r="C6">
-        <v>0.1885503004507143</v>
+        <v>0.6354674001295848</v>
       </c>
       <c r="D6">
-        <v>0.07737547911300169</v>
+        <v>0.05400294172471121</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.889058435354471</v>
+        <v>2.030478675805455</v>
       </c>
       <c r="G6">
-        <v>0.00250351184201403</v>
+        <v>0.0008057377515505726</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.427754441656774</v>
+        <v>1.249819143360654</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.283303399306817</v>
+        <v>0.3137174039010802</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.527302255447466</v>
+        <v>2.72348480889525</v>
       </c>
       <c r="C7">
-        <v>0.1979850109984227</v>
+        <v>0.668717030709189</v>
       </c>
       <c r="D7">
-        <v>0.07729816429796088</v>
+        <v>0.05398314581914931</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.904325308512725</v>
+        <v>2.103364345480102</v>
       </c>
       <c r="G7">
-        <v>0.002501683407992819</v>
+        <v>0.0008028375920608821</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.433610174774245</v>
+        <v>1.282429490966038</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2863024682353483</v>
+        <v>0.3275773845746954</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.674311480527138</v>
+        <v>3.325127225984772</v>
       </c>
       <c r="C8">
-        <v>0.2396244914069428</v>
+        <v>0.8176311319245713</v>
       </c>
       <c r="D8">
-        <v>0.07702681424930446</v>
+        <v>0.05417212724302445</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.974498095576536</v>
+        <v>2.437272790404165</v>
       </c>
       <c r="G8">
-        <v>0.002494026476373</v>
+        <v>0.0007903640418113716</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.461302026612586</v>
+        <v>1.433669074179861</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.299961488222948</v>
+        <v>0.3902653414162813</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.970879677782477</v>
+        <v>4.552578380165016</v>
       </c>
       <c r="C9">
-        <v>0.3213530683602812</v>
+        <v>1.121201618281248</v>
       </c>
       <c r="D9">
-        <v>0.0767506654778245</v>
+        <v>0.05575729901363502</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.122400591792058</v>
+        <v>3.148617786565239</v>
       </c>
       <c r="G9">
-        <v>0.002480479005819775</v>
+        <v>0.0007669018415205064</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.522387282233552</v>
+        <v>1.763378424943014</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3282936770582836</v>
+        <v>0.5203405905646576</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.193950921345674</v>
+        <v>5.498097999254014</v>
       </c>
       <c r="C10">
-        <v>0.3815001085517338</v>
+        <v>1.355418885887786</v>
       </c>
       <c r="D10">
-        <v>0.0767085342868441</v>
+        <v>0.05791251357613447</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.237560365112188</v>
+        <v>3.719539441655257</v>
       </c>
       <c r="G10">
-        <v>0.002471409615084408</v>
+        <v>0.0007500878444598631</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.571526071065549</v>
+        <v>2.033323591762212</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3500747776921287</v>
+        <v>0.6221025326179301</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.296588507953288</v>
+        <v>5.941646766423219</v>
       </c>
       <c r="C11">
-        <v>0.4088971872736238</v>
+        <v>1.465513275491389</v>
       </c>
       <c r="D11">
-        <v>0.07672529932866468</v>
+        <v>0.05917608978220557</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.291408750250667</v>
+        <v>3.993433991860115</v>
       </c>
       <c r="G11">
-        <v>0.002467473331525527</v>
+        <v>0.000742481776832066</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.594833016531382</v>
+        <v>2.164143869619139</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3601982950723084</v>
+        <v>0.6702294546883678</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.335623807493221</v>
+        <v>6.111926753383045</v>
       </c>
       <c r="C12">
-        <v>0.4192778376123556</v>
+        <v>1.507824887058177</v>
       </c>
       <c r="D12">
-        <v>0.07673689872933664</v>
+        <v>0.05970219955351297</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.312013652180383</v>
+        <v>4.099555708577782</v>
       </c>
       <c r="G12">
-        <v>0.002466009824880642</v>
+        <v>0.0007396028643125163</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.603797998822273</v>
+        <v>2.215034273731376</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3640631207529736</v>
+        <v>0.6887658712642093</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.327209328130209</v>
+        <v>6.075143992750725</v>
       </c>
       <c r="C13">
-        <v>0.4170419001647474</v>
+        <v>1.498682722464764</v>
       </c>
       <c r="D13">
-        <v>0.07673416571185498</v>
+        <v>0.05958665130437169</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.307566457819121</v>
+        <v>4.076587141222291</v>
       </c>
       <c r="G13">
-        <v>0.00246632381554787</v>
+        <v>0.0007402229146630867</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.601861008133056</v>
+        <v>2.204010499341194</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3632293654137442</v>
+        <v>0.6847590104027859</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.299796575246489</v>
+        <v>5.955606913049962</v>
       </c>
       <c r="C14">
-        <v>0.4097510852453183</v>
+        <v>1.468981123069057</v>
       </c>
       <c r="D14">
-        <v>0.07672614789994014</v>
+        <v>0.05921837484477521</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.293099625098165</v>
+        <v>4.002114212986953</v>
       </c>
       <c r="G14">
-        <v>0.002467352386347366</v>
+        <v>0.0007422449303551049</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.59556777053163</v>
+        <v>2.168302315814458</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3605156280295319</v>
+        <v>0.6717479064885765</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.283027489638357</v>
+        <v>5.882701380413721</v>
       </c>
       <c r="C15">
-        <v>0.4052860525773667</v>
+        <v>1.450872556758952</v>
       </c>
       <c r="D15">
-        <v>0.07672192307979486</v>
+        <v>0.05899922215512277</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.284266205458408</v>
+        <v>3.956822269376914</v>
       </c>
       <c r="G15">
-        <v>0.002467985937156297</v>
+        <v>0.0007434834923800954</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.591731162844582</v>
+        <v>2.146612467665435</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3588574675154348</v>
+        <v>0.6638203852922402</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.187266824357437</v>
+        <v>5.469412923327411</v>
       </c>
       <c r="C16">
-        <v>0.3797104360768913</v>
+        <v>1.348304433098178</v>
       </c>
       <c r="D16">
-        <v>0.07670816883833709</v>
+        <v>0.05783619700537912</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.234070957072078</v>
+        <v>3.701954999874573</v>
       </c>
       <c r="G16">
-        <v>0.00247167065845815</v>
+        <v>0.0007505853845622921</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.57002226752725</v>
+        <v>2.024951818262139</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3494175398053159</v>
+        <v>0.6189981800933708</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.128819375527996</v>
+        <v>5.219569422519442</v>
       </c>
       <c r="C17">
-        <v>0.3640303868009482</v>
+        <v>1.286364347732786</v>
       </c>
       <c r="D17">
-        <v>0.07670899334465275</v>
+        <v>0.05719979097772665</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.203654638740716</v>
+        <v>3.549475844825025</v>
       </c>
       <c r="G17">
-        <v>0.002473979518038638</v>
+        <v>0.0007549499153121454</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.556950214546092</v>
+        <v>1.952502777301746</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3436817937426042</v>
+        <v>0.5920030339058542</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.095311156999685</v>
+        <v>5.077103423805852</v>
       </c>
       <c r="C18">
-        <v>0.3550149656264239</v>
+        <v>1.25106435460691</v>
       </c>
       <c r="D18">
-        <v>0.07671284448196758</v>
+        <v>0.05685992265208739</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.186297340159712</v>
+        <v>3.46308357274566</v>
       </c>
       <c r="G18">
-        <v>0.00247532535238376</v>
+        <v>0.0007574646248751572</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.54952113682279</v>
+        <v>1.911573426047084</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3404029786625671</v>
+        <v>0.5766455839942353</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.083984556843973</v>
+        <v>5.029068589823396</v>
       </c>
       <c r="C19">
-        <v>0.3519630461830161</v>
+        <v>1.239165332084156</v>
       </c>
       <c r="D19">
-        <v>0.07671472584784311</v>
+        <v>0.05674915332080133</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.180443943125681</v>
+        <v>3.434047376937542</v>
       </c>
       <c r="G19">
-        <v>0.002475784097587946</v>
+        <v>0.0007583169432752155</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.547021109427547</v>
+        <v>1.897837247665095</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3392962936689941</v>
+        <v>0.571473573735588</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.135029891734177</v>
+        <v>5.246035017024155</v>
       </c>
       <c r="C20">
-        <v>0.365699204517</v>
+        <v>1.292923457158054</v>
       </c>
       <c r="D20">
-        <v>0.07670855547219446</v>
+        <v>0.0572647821685095</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.206878265901224</v>
+        <v>3.565569501132302</v>
       </c>
       <c r="G20">
-        <v>0.002473731891004978</v>
+        <v>0.0007544848860495369</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.558332466705778</v>
+        <v>1.960137030031277</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3442902771858058</v>
+        <v>0.5948588524415044</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.307843773842421</v>
+        <v>5.990651553348812</v>
       </c>
       <c r="C21">
-        <v>0.4118924057155482</v>
+        <v>1.477687363366215</v>
       </c>
       <c r="D21">
-        <v>0.07672835974643988</v>
+        <v>0.05932519304097639</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.297343056996795</v>
+        <v>4.023920277143191</v>
       </c>
       <c r="G21">
-        <v>0.002467049536530151</v>
+        <v>0.0007416510209795061</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.597412454170353</v>
+        <v>2.178752253447627</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3613118672068083</v>
+        <v>0.6755607014830218</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.421771619525884</v>
+        <v>6.491038261925155</v>
       </c>
       <c r="C22">
-        <v>0.4421175267117405</v>
+        <v>1.602128302154767</v>
       </c>
       <c r="D22">
-        <v>0.07677194846279178</v>
+        <v>0.06095350362253527</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.357714215533377</v>
+        <v>4.337704611192436</v>
       </c>
       <c r="G22">
-        <v>0.002462839990518547</v>
+        <v>0.0007332683463640798</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.623765506431212</v>
+        <v>2.329624588017595</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3726188784455928</v>
+        <v>0.7301493986152963</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.360875578221169</v>
+        <v>6.222570636297462</v>
       </c>
       <c r="C23">
-        <v>0.4259823181678826</v>
+        <v>1.5353326544992</v>
       </c>
       <c r="D23">
-        <v>0.07674585231223574</v>
+        <v>0.06005605209747955</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.325377705206847</v>
+        <v>4.168793738843704</v>
       </c>
       <c r="G23">
-        <v>0.002465072322774041</v>
+        <v>0.0007377436750296007</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.609625407059553</v>
+        <v>2.248295459265663</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3665673128990932</v>
+        <v>0.7008276448982116</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.132221824698263</v>
+        <v>5.234066298494952</v>
       </c>
       <c r="C24">
-        <v>0.3649447344315604</v>
+        <v>1.289957125753688</v>
       </c>
       <c r="D24">
-        <v>0.07670874292134755</v>
+        <v>0.05723531914147628</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.205420461124902</v>
+        <v>3.558289630048421</v>
       </c>
       <c r="G24">
-        <v>0.002473843785603006</v>
+        <v>0.0007546951083690323</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.557707282103465</v>
+        <v>1.956683348290596</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3440151234696884</v>
+        <v>0.5935672345002416</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.889749850323426</v>
+        <v>4.214025193083216</v>
       </c>
       <c r="C25">
-        <v>0.29922969188911</v>
+        <v>1.037448396251875</v>
       </c>
       <c r="D25">
-        <v>0.07679748333037395</v>
+        <v>0.05517482399331897</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.08126436099991</v>
+        <v>2.948809840936491</v>
       </c>
       <c r="G25">
-        <v>0.00248398794590211</v>
+        <v>0.0007731597662591456</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.505123201536918</v>
+        <v>1.669921183405336</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3204611711356335</v>
+        <v>0.484211351765282</v>
       </c>
       <c r="M25">
         <v>0</v>
